--- a/Capstone Codes/Data/TAT Graph Data.xlsx
+++ b/Capstone Codes/Data/TAT Graph Data.xlsx
@@ -621,10 +621,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>24.66666666666667</v>
+        <v>8.705882352941176</v>
       </c>
       <c r="C14">
-        <v>0.6666666666666666</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D14">
         <v>0</v>
